--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thebr\Documents\excel_merger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE4F5683-3DA0-4A9F-B97F-CA8BB8E8EC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024BAAF1-509B-47AD-B3D2-8EF91526F281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{9CC0E6A4-3BC7-400A-B043-154BE2A44F33}"/>
+    <workbookView xWindow="6750" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9CC0E6A4-3BC7-400A-B043-154BE2A44F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,6 +33,104 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>notaletter</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>bropsken</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,12 +480,3308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DA04B9-800A-4B38-AB35-5022F83F6C7A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="A1:I28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>97</v>
+      </c>
+      <c r="I2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>87</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <v>93</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>84</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>89</v>
+      </c>
+      <c r="G10">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>78</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>93</v>
+      </c>
+      <c r="H11">
+        <v>92</v>
+      </c>
+      <c r="I11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>92</v>
+      </c>
+      <c r="C12">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>83</v>
+      </c>
+      <c r="G13">
+        <v>86</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>85</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>78</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>97</v>
+      </c>
+      <c r="I15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>43</v>
+      </c>
+      <c r="I16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <v>77</v>
+      </c>
+      <c r="G17">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>51</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>92</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>98</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>81</v>
+      </c>
+      <c r="I20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>71</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <v>87</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>82</v>
+      </c>
+      <c r="E23">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>37</v>
+      </c>
+      <c r="G23">
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>72</v>
+      </c>
+      <c r="I24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>96</v>
+      </c>
+      <c r="G25">
+        <v>72</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>54</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>54</v>
+      </c>
+      <c r="H26">
+        <v>72</v>
+      </c>
+      <c r="I26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>91</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>83</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>67</v>
+      </c>
+      <c r="H27">
+        <v>87</v>
+      </c>
+      <c r="I27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>83</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>77</v>
+      </c>
+      <c r="E28">
+        <v>82</v>
+      </c>
+      <c r="F28">
+        <v>83</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>71</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D0EC1F-C72A-45E2-9C9C-BD0EFDED9413}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>97</v>
+      </c>
+      <c r="I2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>87</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <v>93</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>84</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>89</v>
+      </c>
+      <c r="G10">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>78</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>93</v>
+      </c>
+      <c r="H11">
+        <v>92</v>
+      </c>
+      <c r="I11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>92</v>
+      </c>
+      <c r="C12">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>83</v>
+      </c>
+      <c r="G13">
+        <v>86</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>85</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>78</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>97</v>
+      </c>
+      <c r="I15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>43</v>
+      </c>
+      <c r="I16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <v>77</v>
+      </c>
+      <c r="G17">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>51</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>92</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>98</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>81</v>
+      </c>
+      <c r="I20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>71</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <v>87</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>82</v>
+      </c>
+      <c r="E23">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>37</v>
+      </c>
+      <c r="G23">
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>72</v>
+      </c>
+      <c r="I24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>96</v>
+      </c>
+      <c r="G25">
+        <v>72</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>54</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>54</v>
+      </c>
+      <c r="H26">
+        <v>72</v>
+      </c>
+      <c r="I26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>91</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>83</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>67</v>
+      </c>
+      <c r="H27">
+        <v>87</v>
+      </c>
+      <c r="I27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>83</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>77</v>
+      </c>
+      <c r="E28">
+        <v>82</v>
+      </c>
+      <c r="F28">
+        <v>83</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>71</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE8CD7B-A0AF-4BDE-BE03-61F1800981B9}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>97</v>
+      </c>
+      <c r="I2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>87</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <v>93</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>84</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>89</v>
+      </c>
+      <c r="G10">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>78</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>93</v>
+      </c>
+      <c r="H11">
+        <v>92</v>
+      </c>
+      <c r="I11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>92</v>
+      </c>
+      <c r="C12">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>83</v>
+      </c>
+      <c r="G13">
+        <v>86</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>85</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>78</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>97</v>
+      </c>
+      <c r="I15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>43</v>
+      </c>
+      <c r="I16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <v>77</v>
+      </c>
+      <c r="G17">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>51</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>92</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>98</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>81</v>
+      </c>
+      <c r="I20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>71</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <v>87</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>82</v>
+      </c>
+      <c r="E23">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>37</v>
+      </c>
+      <c r="G23">
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>72</v>
+      </c>
+      <c r="I24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>96</v>
+      </c>
+      <c r="G25">
+        <v>72</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>54</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>54</v>
+      </c>
+      <c r="H26">
+        <v>72</v>
+      </c>
+      <c r="I26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>91</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>83</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>67</v>
+      </c>
+      <c r="H27">
+        <v>87</v>
+      </c>
+      <c r="I27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>83</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>77</v>
+      </c>
+      <c r="E28">
+        <v>82</v>
+      </c>
+      <c r="F28">
+        <v>83</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>71</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1268F0-84DE-4757-8AF2-A2DDE0F3F71E}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>97</v>
+      </c>
+      <c r="I2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>87</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <v>93</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>84</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>89</v>
+      </c>
+      <c r="G10">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>78</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>93</v>
+      </c>
+      <c r="H11">
+        <v>92</v>
+      </c>
+      <c r="I11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>92</v>
+      </c>
+      <c r="C12">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>83</v>
+      </c>
+      <c r="G13">
+        <v>86</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>85</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>78</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>97</v>
+      </c>
+      <c r="I15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>43</v>
+      </c>
+      <c r="I16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <v>77</v>
+      </c>
+      <c r="G17">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>51</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>92</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>98</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>81</v>
+      </c>
+      <c r="I20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>71</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <v>87</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>82</v>
+      </c>
+      <c r="E23">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>37</v>
+      </c>
+      <c r="G23">
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>72</v>
+      </c>
+      <c r="I24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>96</v>
+      </c>
+      <c r="G25">
+        <v>72</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>54</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>54</v>
+      </c>
+      <c r="H26">
+        <v>72</v>
+      </c>
+      <c r="I26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>91</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>83</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>67</v>
+      </c>
+      <c r="H27">
+        <v>87</v>
+      </c>
+      <c r="I27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>83</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>77</v>
+      </c>
+      <c r="E28">
+        <v>82</v>
+      </c>
+      <c r="F28">
+        <v>83</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>71</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thebr\Documents\excel_merger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024BAAF1-509B-47AD-B3D2-8EF91526F281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BE2CC2-0275-47D1-A5AE-BDCAFC48329F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9CC0E6A4-3BC7-400A-B043-154BE2A44F33}"/>
+    <workbookView xWindow="6750" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{9CC0E6A4-3BC7-400A-B043-154BE2A44F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DA04B9-800A-4B38-AB35-5022F83F6C7A}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="A1:I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,28 +493,28 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D0EC1F-C72A-45E2-9C9C-BD0EFDED9413}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
